--- a/docs/StructureDefinition-VA.MHV.BlueBundle.xlsx
+++ b/docs/StructureDefinition-VA.MHV.BlueBundle.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$121</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4199" uniqueCount="291">
   <si>
     <t>Path</t>
   </si>
@@ -596,10 +596,20 @@
     <t>Bundle.entry</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Entry in the bundle - will have a resource or information</t>
   </si>
   <si>
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profile:resource}
+</t>
+  </si>
+  <si>
+    <t>Slicing based on the profile conformance of the entry</t>
   </si>
   <si>
     <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
@@ -866,6 +876,48 @@
   <si>
     <t>For a POST/PUT operation, this is the equivalent outcome that would be returned for prefer = operationoutcome - except that the resource is always returned whether or not the outcome is returned.
 This outcome is not used for error responses in batch/transaction, only for hints and warnings. In a batch operation, the error will be in Bundle.entry.response, and for transaction, there will be a single OperationOutcome instead of a bundle in the case of an error.</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>the Patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient
+</t>
+  </si>
+  <si>
+    <t>MHVcompositionBluebutton</t>
+  </si>
+  <si>
+    <t>BlueButton composition</t>
+  </si>
+  <si>
+    <t>The details of the composition including what is in there and what timerange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composition {https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/VA.MHV.BlueComposition}
+</t>
+  </si>
+  <si>
+    <t>A set of resources composed into a single coherent clinical statement with clinical attestation</t>
+  </si>
+  <si>
+    <t>A set of healthcare-related information that is assembled together into a single logical package that provides a single coherent statement of meaning, establishes its own context and that has clinical attestation with regard to who is making the statement. A Composition defines the structure and narrative content necessary for a document. However, a Composition alone does not constitute a document. Rather, the Composition must be the first entry in a Bundle where Bundle.type=document, and any other resources referenced from Composition must be included as subsequent entries in the Bundle (for example Patient, Practitioner, Encounter, etc.).</t>
+  </si>
+  <si>
+    <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
+    <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -1033,7 +1085,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM57"/>
+  <dimension ref="A1:AM121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1043,7 +1095,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.17578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.67578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="20.859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1069,7 +1121,7 @@
     <col min="25" max="25" width="49.546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="48.55078125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.58203125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1078,7 +1130,7 @@
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="64.80859375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="41.4296875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
@@ -3755,13 +3807,13 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
@@ -3773,10 +3825,10 @@
         <v>163</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3815,16 +3867,16 @@
         <v>40</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>181</v>
@@ -3839,7 +3891,7 @@
         <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>40</v>
@@ -3856,7 +3908,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3965,7 +4017,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4076,7 +4128,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4189,7 +4241,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4215,10 +4267,10 @@
         <v>40</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4269,7 +4321,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4298,7 +4350,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4324,13 +4376,13 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4380,7 +4432,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4407,9 +4459,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4423,7 +4475,7 @@
         <v>49</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>40</v>
@@ -4432,13 +4484,13 @@
         <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4489,7 +4541,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4518,7 +4570,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4544,10 +4596,10 @@
         <v>163</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4598,7 +4650,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4607,7 +4659,7 @@
         <v>49</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>61</v>
@@ -4627,7 +4679,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4736,7 +4788,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4847,7 +4899,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4960,7 +5012,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4986,13 +5038,13 @@
         <v>126</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5021,10 +5073,10 @@
         <v>146</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -5042,7 +5094,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5071,7 +5123,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5094,16 +5146,16 @@
         <v>50</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5153,7 +5205,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5182,7 +5234,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5208,10 +5260,10 @@
         <v>163</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5262,7 +5314,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5271,7 +5323,7 @@
         <v>49</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>61</v>
@@ -5291,7 +5343,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5400,7 +5452,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5511,7 +5563,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5624,7 +5676,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5650,10 +5702,10 @@
         <v>126</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5683,28 +5735,28 @@
         <v>146</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE42" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>49</v>
@@ -5733,7 +5785,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5759,13 +5811,13 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -5815,7 +5867,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>49</v>
@@ -5844,7 +5896,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5870,10 +5922,10 @@
         <v>51</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5924,7 +5976,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -5953,7 +6005,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5979,10 +6031,10 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6033,7 +6085,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6062,7 +6114,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6088,10 +6140,10 @@
         <v>51</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6142,7 +6194,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6171,7 +6223,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6197,10 +6249,10 @@
         <v>51</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6251,7 +6303,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6280,7 +6332,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6306,10 +6358,10 @@
         <v>163</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6360,7 +6412,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6369,7 +6421,7 @@
         <v>49</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>61</v>
@@ -6389,7 +6441,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6498,7 +6550,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6609,7 +6661,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6722,7 +6774,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6748,10 +6800,10 @@
         <v>51</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6802,7 +6854,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>49</v>
@@ -6831,7 +6883,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6857,10 +6909,10 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6911,7 +6963,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -6940,7 +6992,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6966,13 +7018,13 @@
         <v>51</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7022,7 +7074,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7051,7 +7103,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7077,13 +7129,13 @@
         <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7133,7 +7185,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7162,7 +7214,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7185,16 +7237,16 @@
         <v>50</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7244,7 +7296,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7271,23 +7323,25 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>40</v>
@@ -7296,20 +7350,16 @@
         <v>50</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>270</v>
+        <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M57" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="N57" t="s" s="2">
-        <v>274</v>
-      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7357,35 +7407,7095 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AF57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI57" t="s" s="2">
+      <c r="L88" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI93" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AJ93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F115" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F117" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F118" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F119" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F120" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P120" s="2"/>
+      <c r="Q120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" hidden="true">
+      <c r="A121" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F121" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P121" s="2"/>
+      <c r="Q121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM121" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM57">
+  <autoFilter ref="A1:AM121">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7395,7 +14505,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI56">
+  <conditionalFormatting sqref="A2:AI120">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.BlueBundle.xlsx
+++ b/docs/StructureDefinition-VA.MHV.BlueBundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.6-beta</t>
+    <t>0.2.7-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.BlueBundle.xlsx
+++ b/docs/StructureDefinition-VA.MHV.BlueBundle.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.BlueBundle.xlsx
+++ b/docs/StructureDefinition-VA.MHV.BlueBundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7-beta</t>
+    <t>0.2.8-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.BlueBundle.xlsx
+++ b/docs/StructureDefinition-VA.MHV.BlueBundle.xlsx
@@ -81,7 +81,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.BlueBundle.xlsx
+++ b/docs/StructureDefinition-VA.MHV.BlueBundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8-beta</t>
+    <t>0.2.9-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.BlueBundle.xlsx
+++ b/docs/StructureDefinition-VA.MHV.BlueBundle.xlsx
@@ -87,14 +87,14 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">A profile on the Bundle that declares how MHV will Create/Update in PGHD for BlueButton report.
+    <t>A profile on the Bundle that declares how MHV will Create/Update in PGHD for BlueButton report.
 **This is a work in progress. It is not agreed to, and it is not ready for review.**
 * must be a document type Bundle
 * must have a timestamp of when this was created
 * must have a MHV Bluebutton type of a Composition 
 * must include Patient Resource
 * must include all Resources referenced by Composition 
-* DSTU2 use comment rather than note </t>
+* DSTU2 use comment rather than note</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-VA.MHV.BlueBundle.xlsx
+++ b/docs/StructureDefinition-VA.MHV.BlueBundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4360" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4360" uniqueCount="393">
   <si>
     <t>Property</t>
   </si>
@@ -266,6 +266,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Contains a collection of resources</t>
@@ -1776,13 +1780,13 @@
         <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1848,13 +1852,13 @@
         <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>78</v>
@@ -1862,10 +1866,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1876,7 +1880,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>78</v>
@@ -1885,19 +1889,19 @@
         <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1947,13 +1951,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -1976,10 +1980,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1990,7 +1994,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>78</v>
@@ -1999,16 +2003,16 @@
         <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2059,19 +2063,19 @@
         <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -2088,10 +2092,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2102,7 +2106,7 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>78</v>
@@ -2114,13 +2118,13 @@
         <v>78</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2171,13 +2175,13 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
@@ -2189,7 +2193,7 @@
         <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>78</v>
@@ -2200,14 +2204,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2226,16 +2230,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2273,19 +2277,19 @@
         <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
@@ -2297,13 +2301,13 @@
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>78</v>
@@ -2314,10 +2318,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2328,7 +2332,7 @@
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>78</v>
@@ -2337,19 +2341,19 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2399,19 +2403,19 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
@@ -2428,10 +2432,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2442,7 +2446,7 @@
         <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>78</v>
@@ -2451,19 +2455,19 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2513,19 +2517,19 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
@@ -2542,10 +2546,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2556,7 +2560,7 @@
         <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>78</v>
@@ -2565,19 +2569,19 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2627,19 +2631,19 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -2656,10 +2660,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2679,19 +2683,19 @@
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2741,7 +2745,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2753,7 +2757,7 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -2770,10 +2774,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2793,19 +2797,19 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2831,13 +2835,13 @@
         <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>78</v>
@@ -2855,7 +2859,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2867,7 +2871,7 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -2884,10 +2888,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2895,10 +2899,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -2907,19 +2911,19 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2930,7 +2934,7 @@
         <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>78</v>
@@ -2945,13 +2949,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -2969,7 +2973,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2981,7 +2985,7 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -2998,10 +3002,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3012,28 +3016,28 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3083,19 +3087,19 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -3112,10 +3116,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3126,7 +3130,7 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -3138,16 +3142,16 @@
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3173,13 +3177,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3197,19 +3201,19 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -3226,10 +3230,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3240,7 +3244,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3249,19 +3253,19 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3311,19 +3315,19 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
@@ -3332,18 +3336,18 @@
         <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3351,10 +3355,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -3363,19 +3367,19 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3386,7 +3390,7 @@
         <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>78</v>
@@ -3401,13 +3405,13 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3425,19 +3429,19 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
@@ -3449,15 +3453,15 @@
         <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3465,10 +3469,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
@@ -3477,19 +3481,19 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3539,19 +3543,19 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
@@ -3560,18 +3564,18 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3582,7 +3586,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3591,19 +3595,19 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3653,19 +3657,19 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
@@ -3682,10 +3686,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3705,19 +3709,19 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3767,7 +3771,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3779,7 +3783,7 @@
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
@@ -3796,10 +3800,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3810,7 +3814,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -3822,13 +3826,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3879,13 +3883,13 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
@@ -3897,7 +3901,7 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -3908,14 +3912,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3934,16 +3938,16 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3993,7 +3997,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4005,13 +4009,13 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -4022,14 +4026,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4042,25 +4046,25 @@
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4109,7 +4113,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4121,13 +4125,13 @@
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
@@ -4138,10 +4142,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4149,10 +4153,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -4161,16 +4165,16 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4221,19 +4225,19 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
@@ -4250,10 +4254,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4261,10 +4265,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4273,16 +4277,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4333,19 +4337,19 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
@@ -4362,10 +4366,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4373,28 +4377,28 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4433,19 +4437,19 @@
         <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4457,7 +4461,7 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
@@ -4474,10 +4478,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4488,7 +4492,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4500,13 +4504,13 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4557,13 +4561,13 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -4575,7 +4579,7 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4586,14 +4590,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4612,16 +4616,16 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4671,7 +4675,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4683,13 +4687,13 @@
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4700,14 +4704,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4720,25 +4724,25 @@
         <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -4787,7 +4791,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4799,13 +4803,13 @@
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -4816,10 +4820,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4839,16 +4843,16 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4899,7 +4903,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4911,7 +4915,7 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
@@ -4928,10 +4932,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4942,7 +4946,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -4951,19 +4955,19 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5013,19 +5017,19 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
@@ -5042,10 +5046,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5056,25 +5060,25 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5125,13 +5129,13 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
@@ -5154,10 +5158,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5168,7 +5172,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5177,16 +5181,16 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5237,19 +5241,19 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -5266,10 +5270,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5280,7 +5284,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5292,13 +5296,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5349,13 +5353,13 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
@@ -5367,7 +5371,7 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5378,14 +5382,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5404,16 +5408,16 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5463,7 +5467,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5475,13 +5479,13 @@
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5492,14 +5496,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5512,25 +5516,25 @@
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5579,7 +5583,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5591,13 +5595,13 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5608,10 +5612,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5622,7 +5626,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5631,19 +5635,19 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5669,13 +5673,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -5693,19 +5697,19 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -5722,10 +5726,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5736,7 +5740,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5745,19 +5749,19 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5807,19 +5811,19 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -5836,10 +5840,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5850,7 +5854,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -5859,16 +5863,16 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5919,19 +5923,19 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -5948,10 +5952,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5962,7 +5966,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -5974,13 +5978,13 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6031,13 +6035,13 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
@@ -6049,7 +6053,7 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6060,14 +6064,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6086,16 +6090,16 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6145,7 +6149,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6157,13 +6161,13 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6174,14 +6178,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6194,25 +6198,25 @@
         <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6261,7 +6265,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6273,13 +6277,13 @@
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6290,10 +6294,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6301,10 +6305,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6313,16 +6317,16 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6349,13 +6353,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6373,19 +6377,19 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
@@ -6402,10 +6406,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6413,10 +6417,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6425,19 +6429,19 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6487,19 +6491,19 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
@@ -6516,10 +6520,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6530,7 +6534,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6539,16 +6543,16 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6599,19 +6603,19 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
@@ -6628,10 +6632,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6642,7 +6646,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6651,16 +6655,16 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6711,19 +6715,19 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
@@ -6740,10 +6744,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6754,7 +6758,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -6763,16 +6767,16 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6823,19 +6827,19 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
@@ -6852,10 +6856,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6866,7 +6870,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -6875,16 +6879,16 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6935,19 +6939,19 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -6964,10 +6968,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6978,7 +6982,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -6987,16 +6991,16 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7047,19 +7051,19 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
@@ -7076,10 +7080,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7090,7 +7094,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7102,13 +7106,13 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7159,13 +7163,13 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
@@ -7177,7 +7181,7 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7188,14 +7192,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7214,16 +7218,16 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7273,7 +7277,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7285,13 +7289,13 @@
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7302,14 +7306,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7322,25 +7326,25 @@
         <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7389,7 +7393,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7401,13 +7405,13 @@
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7418,10 +7422,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7429,10 +7433,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -7441,16 +7445,16 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7501,19 +7505,19 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
@@ -7530,10 +7534,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7544,7 +7548,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -7553,16 +7557,16 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7613,19 +7617,19 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -7642,10 +7646,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7656,7 +7660,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -7665,19 +7669,19 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7727,19 +7731,19 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
@@ -7756,10 +7760,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7770,7 +7774,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -7779,19 +7783,19 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7841,19 +7845,19 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
@@ -7870,10 +7874,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7884,7 +7888,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -7893,19 +7897,19 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7955,13 +7959,13 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
@@ -7984,41 +7988,41 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8069,7 +8073,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8081,7 +8085,7 @@
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
@@ -8098,10 +8102,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8112,7 +8116,7 @@
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8124,13 +8128,13 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8181,13 +8185,13 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
@@ -8199,7 +8203,7 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8210,14 +8214,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8236,16 +8240,16 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8295,7 +8299,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8307,13 +8311,13 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8324,14 +8328,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8344,25 +8348,25 @@
         <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8411,7 +8415,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8423,13 +8427,13 @@
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -8440,10 +8444,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8463,16 +8467,16 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8523,7 +8527,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8535,7 +8539,7 @@
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
@@ -8552,10 +8556,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8566,7 +8570,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -8575,19 +8579,19 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8637,19 +8641,19 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -8666,10 +8670,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8680,7 +8684,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
@@ -8689,16 +8693,16 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8749,13 +8753,13 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
@@ -8778,10 +8782,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8792,7 +8796,7 @@
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
@@ -8801,16 +8805,16 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8861,19 +8865,19 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
@@ -8890,10 +8894,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8904,7 +8908,7 @@
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -8916,13 +8920,13 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8973,13 +8977,13 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
@@ -8991,7 +8995,7 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9002,14 +9006,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9028,16 +9032,16 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9087,7 +9091,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9099,13 +9103,13 @@
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9116,14 +9120,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9136,25 +9140,25 @@
         <v>78</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -9203,7 +9207,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9215,13 +9219,13 @@
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
@@ -9232,10 +9236,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9246,7 +9250,7 @@
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
@@ -9255,19 +9259,19 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9293,13 +9297,13 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -9317,19 +9321,19 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
@@ -9346,10 +9350,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9360,7 +9364,7 @@
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -9369,19 +9373,19 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9431,19 +9435,19 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
@@ -9460,10 +9464,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9474,7 +9478,7 @@
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -9483,16 +9487,16 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9543,19 +9547,19 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
@@ -9572,10 +9576,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9586,7 +9590,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
@@ -9598,13 +9602,13 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9655,13 +9659,13 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
@@ -9673,7 +9677,7 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
@@ -9684,14 +9688,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9710,16 +9714,16 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9769,7 +9773,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -9781,13 +9785,13 @@
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
@@ -9798,14 +9802,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -9818,25 +9822,25 @@
         <v>78</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -9885,7 +9889,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -9897,13 +9901,13 @@
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
@@ -9914,10 +9918,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9925,10 +9929,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -9937,16 +9941,16 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9973,13 +9977,13 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>78</v>
@@ -9997,19 +10001,19 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
@@ -10026,10 +10030,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10037,10 +10041,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -10049,19 +10053,19 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10111,19 +10115,19 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -10140,10 +10144,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10154,7 +10158,7 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
@@ -10163,16 +10167,16 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10223,19 +10227,19 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
@@ -10252,10 +10256,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10266,7 +10270,7 @@
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
@@ -10275,16 +10279,16 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10335,19 +10339,19 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
@@ -10364,10 +10368,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10378,7 +10382,7 @@
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
@@ -10387,16 +10391,16 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10447,19 +10451,19 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
@@ -10476,10 +10480,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10490,7 +10494,7 @@
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
@@ -10499,16 +10503,16 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10559,19 +10563,19 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
@@ -10588,10 +10592,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10602,7 +10606,7 @@
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>78</v>
@@ -10611,16 +10615,16 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10671,19 +10675,19 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
@@ -10700,10 +10704,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10714,7 +10718,7 @@
         <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>78</v>
@@ -10726,13 +10730,13 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10783,13 +10787,13 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>78</v>
@@ -10801,7 +10805,7 @@
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
@@ -10812,14 +10816,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -10838,16 +10842,16 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -10897,7 +10901,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -10909,13 +10913,13 @@
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
@@ -10926,14 +10930,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -10946,25 +10950,25 @@
         <v>78</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>78</v>
@@ -11013,7 +11017,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11025,13 +11029,13 @@
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>78</v>
@@ -11042,10 +11046,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11053,10 +11057,10 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>78</v>
@@ -11065,16 +11069,16 @@
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11125,19 +11129,19 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
@@ -11154,10 +11158,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11168,7 +11172,7 @@
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>78</v>
@@ -11177,16 +11181,16 @@
         <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11237,19 +11241,19 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
@@ -11266,10 +11270,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11280,7 +11284,7 @@
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>78</v>
@@ -11289,19 +11293,19 @@
         <v>78</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11351,19 +11355,19 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
@@ -11380,10 +11384,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11394,7 +11398,7 @@
         <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>78</v>
@@ -11403,19 +11407,19 @@
         <v>78</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11465,19 +11469,19 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
@@ -11494,10 +11498,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11508,7 +11512,7 @@
         <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>78</v>
@@ -11517,19 +11521,19 @@
         <v>78</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -11579,13 +11583,13 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>78</v>
@@ -11608,41 +11612,41 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11693,7 +11697,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -11705,7 +11709,7 @@
         <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
@@ -11722,10 +11726,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11736,7 +11740,7 @@
         <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>78</v>
@@ -11748,13 +11752,13 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11805,13 +11809,13 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>78</v>
@@ -11823,7 +11827,7 @@
         <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>78</v>
@@ -11834,14 +11838,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -11860,16 +11864,16 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -11919,7 +11923,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -11931,13 +11935,13 @@
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>78</v>
@@ -11948,14 +11952,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -11968,25 +11972,25 @@
         <v>78</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
@@ -12035,7 +12039,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -12047,13 +12051,13 @@
         <v>78</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>78</v>
@@ -12064,10 +12068,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12087,16 +12091,16 @@
         <v>78</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12147,7 +12151,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -12159,7 +12163,7 @@
         <v>78</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>78</v>
@@ -12176,10 +12180,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12190,7 +12194,7 @@
         <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>78</v>
@@ -12199,19 +12203,19 @@
         <v>78</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -12261,19 +12265,19 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>78</v>
@@ -12290,10 +12294,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12304,7 +12308,7 @@
         <v>79</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>78</v>
@@ -12316,16 +12320,16 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -12375,28 +12379,28 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -12404,10 +12408,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12418,7 +12422,7 @@
         <v>79</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>78</v>
@@ -12427,16 +12431,16 @@
         <v>78</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12487,19 +12491,19 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>78</v>
@@ -12516,10 +12520,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12530,7 +12534,7 @@
         <v>79</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>78</v>
@@ -12542,13 +12546,13 @@
         <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12599,13 +12603,13 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>78</v>
@@ -12617,7 +12621,7 @@
         <v>78</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>78</v>
@@ -12628,14 +12632,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -12654,16 +12658,16 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -12713,7 +12717,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -12725,13 +12729,13 @@
         <v>78</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>78</v>
@@ -12742,14 +12746,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -12762,25 +12766,25 @@
         <v>78</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>78</v>
@@ -12829,7 +12833,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -12841,13 +12845,13 @@
         <v>78</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>78</v>
@@ -12858,10 +12862,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12872,7 +12876,7 @@
         <v>79</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>78</v>
@@ -12881,19 +12885,19 @@
         <v>78</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -12919,13 +12923,13 @@
         <v>78</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>78</v>
@@ -12943,19 +12947,19 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>78</v>
@@ -12972,10 +12976,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12986,7 +12990,7 @@
         <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>78</v>
@@ -12995,19 +12999,19 @@
         <v>78</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -13057,19 +13061,19 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>78</v>
@@ -13086,10 +13090,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13100,7 +13104,7 @@
         <v>79</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>78</v>
@@ -13109,16 +13113,16 @@
         <v>78</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13169,19 +13173,19 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>78</v>
@@ -13198,10 +13202,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13212,7 +13216,7 @@
         <v>79</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>78</v>
@@ -13224,13 +13228,13 @@
         <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13281,13 +13285,13 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>78</v>
@@ -13299,7 +13303,7 @@
         <v>78</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>78</v>
@@ -13310,14 +13314,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -13336,16 +13340,16 @@
         <v>78</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -13395,7 +13399,7 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
@@ -13407,13 +13411,13 @@
         <v>78</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>78</v>
@@ -13424,14 +13428,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -13444,25 +13448,25 @@
         <v>78</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>78</v>
@@ -13511,7 +13515,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -13523,13 +13527,13 @@
         <v>78</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>78</v>
@@ -13540,10 +13544,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13551,10 +13555,10 @@
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>78</v>
@@ -13563,16 +13567,16 @@
         <v>78</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -13599,13 +13603,13 @@
         <v>78</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>78</v>
@@ -13623,19 +13627,19 @@
         <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>78</v>
@@ -13652,10 +13656,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13663,10 +13667,10 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>78</v>
@@ -13675,19 +13679,19 @@
         <v>78</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -13737,19 +13741,19 @@
         <v>78</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>78</v>
@@ -13766,10 +13770,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13780,7 +13784,7 @@
         <v>79</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>78</v>
@@ -13789,16 +13793,16 @@
         <v>78</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13849,19 +13853,19 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>78</v>
@@ -13878,10 +13882,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13892,7 +13896,7 @@
         <v>79</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>78</v>
@@ -13901,16 +13905,16 @@
         <v>78</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13961,19 +13965,19 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>78</v>
@@ -13990,10 +13994,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14004,7 +14008,7 @@
         <v>79</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>78</v>
@@ -14013,16 +14017,16 @@
         <v>78</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -14073,19 +14077,19 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>78</v>
@@ -14102,10 +14106,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14116,7 +14120,7 @@
         <v>79</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>78</v>
@@ -14125,16 +14129,16 @@
         <v>78</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -14185,19 +14189,19 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>78</v>
@@ -14214,10 +14218,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14228,7 +14232,7 @@
         <v>79</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>78</v>
@@ -14237,16 +14241,16 @@
         <v>78</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -14297,19 +14301,19 @@
         <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>78</v>
@@ -14326,10 +14330,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14340,7 +14344,7 @@
         <v>79</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>78</v>
@@ -14352,13 +14356,13 @@
         <v>78</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -14409,13 +14413,13 @@
         <v>78</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>78</v>
@@ -14427,7 +14431,7 @@
         <v>78</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>78</v>
@@ -14438,14 +14442,14 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -14464,16 +14468,16 @@
         <v>78</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -14523,7 +14527,7 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -14535,13 +14539,13 @@
         <v>78</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>78</v>
@@ -14552,14 +14556,14 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -14572,25 +14576,25 @@
         <v>78</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>78</v>
@@ -14639,7 +14643,7 @@
         <v>78</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -14651,13 +14655,13 @@
         <v>78</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>78</v>
@@ -14668,10 +14672,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14679,10 +14683,10 @@
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>78</v>
@@ -14691,16 +14695,16 @@
         <v>78</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -14751,19 +14755,19 @@
         <v>78</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>78</v>
@@ -14780,10 +14784,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14794,7 +14798,7 @@
         <v>79</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>78</v>
@@ -14803,16 +14807,16 @@
         <v>78</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14863,19 +14867,19 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>78</v>
@@ -14892,10 +14896,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -14906,7 +14910,7 @@
         <v>79</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>78</v>
@@ -14915,19 +14919,19 @@
         <v>78</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -14977,19 +14981,19 @@
         <v>78</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>78</v>
@@ -15006,10 +15010,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15020,7 +15024,7 @@
         <v>79</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>78</v>
@@ -15029,19 +15033,19 @@
         <v>78</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
@@ -15091,19 +15095,19 @@
         <v>78</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>78</v>
@@ -15120,10 +15124,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15134,7 +15138,7 @@
         <v>79</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>78</v>
@@ -15143,19 +15147,19 @@
         <v>78</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -15205,13 +15209,13 @@
         <v>78</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>78</v>
@@ -15234,10 +15238,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15248,7 +15252,7 @@
         <v>79</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>78</v>
@@ -15257,22 +15261,22 @@
         <v>78</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>78</v>
@@ -15321,19 +15325,19 @@
         <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>78</v>

--- a/docs/StructureDefinition-VA.MHV.BlueBundle.xlsx
+++ b/docs/StructureDefinition-VA.MHV.BlueBundle.xlsx
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the Bundle that declares how MHV will Create/Update in PGHD for BlueButton report.
+    <t>A profile on the Bundle that declares how MHV will Create in PGHD for BlueButton report.
 **This is a work in progress. It is not agreed to, and it is not ready for review.**
 * must be a document type Bundle
 * must have a timestamp of when this was created

--- a/docs/StructureDefinition-VA.MHV.BlueBundle.xlsx
+++ b/docs/StructureDefinition-VA.MHV.BlueBundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4360" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4360" uniqueCount="394">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9-beta</t>
+    <t>0.2.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -278,6 +278,10 @@
     <t>A container for a collection of resources.</t>
   </si>
   <si>
+    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -429,7 +433,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -449,7 +453,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -767,7 +771,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>
@@ -1372,10 +1376,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1849,16 +1853,16 @@
         <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>78</v>
@@ -1866,10 +1870,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1880,7 +1884,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>78</v>
@@ -1889,19 +1893,19 @@
         <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1951,13 +1955,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -1980,10 +1984,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1994,7 +1998,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>78</v>
@@ -2003,16 +2007,16 @@
         <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2063,19 +2067,19 @@
         <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -2092,10 +2096,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2106,7 +2110,7 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>78</v>
@@ -2118,13 +2122,13 @@
         <v>78</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2175,13 +2179,13 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
@@ -2193,7 +2197,7 @@
         <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>78</v>
@@ -2204,14 +2208,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2230,16 +2234,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2277,19 +2281,19 @@
         <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
@@ -2301,13 +2305,13 @@
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>78</v>
@@ -2318,10 +2322,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2332,7 +2336,7 @@
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>78</v>
@@ -2341,19 +2345,19 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2403,19 +2407,19 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
@@ -2432,10 +2436,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2446,7 +2450,7 @@
         <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>78</v>
@@ -2455,19 +2459,19 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2517,19 +2521,19 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
@@ -2546,10 +2550,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2560,7 +2564,7 @@
         <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>78</v>
@@ -2569,19 +2573,19 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2631,19 +2635,19 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -2660,10 +2664,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2683,19 +2687,19 @@
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2745,7 +2749,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2757,7 +2761,7 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -2774,10 +2778,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2797,19 +2801,19 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2835,13 +2839,13 @@
         <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>78</v>
@@ -2859,7 +2863,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2871,7 +2875,7 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -2888,10 +2892,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2899,10 +2903,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -2911,19 +2915,19 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2934,7 +2938,7 @@
         <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>78</v>
@@ -2949,13 +2953,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -2973,7 +2977,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2985,7 +2989,7 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -3002,10 +3006,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3016,28 +3020,28 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3087,19 +3091,19 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -3116,10 +3120,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3130,7 +3134,7 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -3142,16 +3146,16 @@
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3177,13 +3181,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3201,19 +3205,19 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -3230,10 +3234,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3244,7 +3248,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3253,19 +3257,19 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3315,19 +3319,19 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
@@ -3336,18 +3340,18 @@
         <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3355,10 +3359,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -3367,19 +3371,19 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3390,7 +3394,7 @@
         <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>78</v>
@@ -3405,13 +3409,13 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3429,19 +3433,19 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
@@ -3453,15 +3457,15 @@
         <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3469,10 +3473,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
@@ -3481,19 +3485,19 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3543,19 +3547,19 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
@@ -3564,18 +3568,18 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3586,7 +3590,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3595,19 +3599,19 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3657,19 +3661,19 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
@@ -3686,10 +3690,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3709,19 +3713,19 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3771,7 +3775,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3783,7 +3787,7 @@
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
@@ -3800,10 +3804,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3814,7 +3818,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -3826,13 +3830,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3883,13 +3887,13 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
@@ -3901,7 +3905,7 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -3912,14 +3916,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3938,16 +3942,16 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3997,7 +4001,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4009,13 +4013,13 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -4026,14 +4030,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4046,25 +4050,25 @@
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4113,7 +4117,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4125,13 +4129,13 @@
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
@@ -4142,10 +4146,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4153,10 +4157,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -4165,16 +4169,16 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4225,19 +4229,19 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
@@ -4254,10 +4258,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4265,10 +4269,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4277,16 +4281,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4337,19 +4341,19 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
@@ -4366,10 +4370,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4377,28 +4381,28 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4437,19 +4441,19 @@
         <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4461,7 +4465,7 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
@@ -4478,10 +4482,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4492,7 +4496,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4504,13 +4508,13 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4561,13 +4565,13 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -4579,7 +4583,7 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4590,14 +4594,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4616,16 +4620,16 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4675,7 +4679,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4687,13 +4691,13 @@
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4704,14 +4708,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4724,25 +4728,25 @@
         <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -4791,7 +4795,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4803,13 +4807,13 @@
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -4820,10 +4824,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4843,16 +4847,16 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4903,7 +4907,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4915,7 +4919,7 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
@@ -4932,10 +4936,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4946,7 +4950,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -4955,19 +4959,19 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5017,19 +5021,19 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
@@ -5046,10 +5050,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5060,25 +5064,25 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5129,13 +5133,13 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
@@ -5158,10 +5162,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5172,7 +5176,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5181,16 +5185,16 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5241,19 +5245,19 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -5270,10 +5274,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5284,7 +5288,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5296,13 +5300,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5353,13 +5357,13 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
@@ -5371,7 +5375,7 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5382,14 +5386,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5408,16 +5412,16 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5467,7 +5471,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5479,13 +5483,13 @@
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5496,14 +5500,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5516,25 +5520,25 @@
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5583,7 +5587,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5595,13 +5599,13 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5612,10 +5616,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5626,7 +5630,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5635,19 +5639,19 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5673,13 +5677,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -5697,19 +5701,19 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -5726,10 +5730,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5740,7 +5744,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5749,19 +5753,19 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5811,19 +5815,19 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -5840,10 +5844,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5854,7 +5858,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -5863,16 +5867,16 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5923,19 +5927,19 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -5952,10 +5956,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5966,7 +5970,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -5978,13 +5982,13 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6035,13 +6039,13 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
@@ -6053,7 +6057,7 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6064,14 +6068,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6090,16 +6094,16 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6149,7 +6153,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6161,13 +6165,13 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6178,14 +6182,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6198,25 +6202,25 @@
         <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6265,7 +6269,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6277,13 +6281,13 @@
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6294,10 +6298,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6305,10 +6309,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6317,16 +6321,16 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6353,13 +6357,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6377,19 +6381,19 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
@@ -6406,10 +6410,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6417,10 +6421,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6429,19 +6433,19 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6491,19 +6495,19 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
@@ -6520,10 +6524,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6534,7 +6538,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6543,16 +6547,16 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6603,19 +6607,19 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
@@ -6632,10 +6636,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6646,7 +6650,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6655,16 +6659,16 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6715,19 +6719,19 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
@@ -6744,10 +6748,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6758,7 +6762,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -6767,16 +6771,16 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6827,19 +6831,19 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
@@ -6856,10 +6860,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6870,7 +6874,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -6879,16 +6883,16 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6939,19 +6943,19 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -6968,10 +6972,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6982,7 +6986,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -6991,16 +6995,16 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7051,19 +7055,19 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
@@ -7080,10 +7084,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7094,7 +7098,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7106,13 +7110,13 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7163,13 +7167,13 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
@@ -7181,7 +7185,7 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7192,14 +7196,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7218,16 +7222,16 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7277,7 +7281,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7289,13 +7293,13 @@
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7306,14 +7310,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7326,25 +7330,25 @@
         <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7393,7 +7397,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7405,13 +7409,13 @@
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7422,10 +7426,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7433,10 +7437,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -7445,16 +7449,16 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7505,19 +7509,19 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
@@ -7534,10 +7538,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7548,7 +7552,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -7557,16 +7561,16 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7617,19 +7621,19 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -7646,10 +7650,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7660,7 +7664,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -7669,19 +7673,19 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7731,19 +7735,19 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
@@ -7760,10 +7764,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7774,7 +7778,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -7783,19 +7787,19 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7845,19 +7849,19 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
@@ -7874,10 +7878,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7888,7 +7892,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -7897,19 +7901,19 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7959,13 +7963,13 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
@@ -7988,41 +7992,41 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8073,7 +8077,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8085,7 +8089,7 @@
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
@@ -8102,10 +8106,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8116,7 +8120,7 @@
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8128,13 +8132,13 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8185,13 +8189,13 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
@@ -8203,7 +8207,7 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8214,14 +8218,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8240,16 +8244,16 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8299,7 +8303,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8311,13 +8315,13 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8328,14 +8332,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8348,25 +8352,25 @@
         <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8415,7 +8419,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8427,13 +8431,13 @@
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -8444,10 +8448,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8467,16 +8471,16 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8527,7 +8531,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8539,7 +8543,7 @@
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
@@ -8556,10 +8560,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8570,7 +8574,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -8579,19 +8583,19 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8641,19 +8645,19 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -8670,10 +8674,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8684,7 +8688,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
@@ -8693,16 +8697,16 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8753,13 +8757,13 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
@@ -8782,10 +8786,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8796,7 +8800,7 @@
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
@@ -8805,16 +8809,16 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8865,19 +8869,19 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
@@ -8894,10 +8898,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8908,7 +8912,7 @@
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -8920,13 +8924,13 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8977,13 +8981,13 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
@@ -8995,7 +8999,7 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9006,14 +9010,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9032,16 +9036,16 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9091,7 +9095,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9103,13 +9107,13 @@
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9120,14 +9124,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9140,25 +9144,25 @@
         <v>78</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -9207,7 +9211,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9219,13 +9223,13 @@
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
@@ -9236,10 +9240,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9250,7 +9254,7 @@
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
@@ -9259,19 +9263,19 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9297,13 +9301,13 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -9321,19 +9325,19 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
@@ -9350,10 +9354,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9364,7 +9368,7 @@
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -9373,19 +9377,19 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9435,19 +9439,19 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
@@ -9464,10 +9468,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9478,7 +9482,7 @@
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -9487,16 +9491,16 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9547,19 +9551,19 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
@@ -9576,10 +9580,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9590,7 +9594,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
@@ -9602,13 +9606,13 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9659,13 +9663,13 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
@@ -9677,7 +9681,7 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
@@ -9688,14 +9692,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9714,16 +9718,16 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9773,7 +9777,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -9785,13 +9789,13 @@
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
@@ -9802,14 +9806,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -9822,25 +9826,25 @@
         <v>78</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -9889,7 +9893,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -9901,13 +9905,13 @@
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
@@ -9918,10 +9922,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9929,10 +9933,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -9941,16 +9945,16 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9977,13 +9981,13 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>78</v>
@@ -10001,19 +10005,19 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
@@ -10030,10 +10034,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10041,10 +10045,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -10053,19 +10057,19 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10115,19 +10119,19 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -10144,10 +10148,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10158,7 +10162,7 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
@@ -10167,16 +10171,16 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10227,19 +10231,19 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
@@ -10256,10 +10260,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10270,7 +10274,7 @@
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
@@ -10279,16 +10283,16 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10339,19 +10343,19 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
@@ -10368,10 +10372,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10382,7 +10386,7 @@
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
@@ -10391,16 +10395,16 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10451,19 +10455,19 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
@@ -10480,10 +10484,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10494,7 +10498,7 @@
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
@@ -10503,16 +10507,16 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10563,19 +10567,19 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
@@ -10592,10 +10596,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10606,7 +10610,7 @@
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>78</v>
@@ -10615,16 +10619,16 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10675,19 +10679,19 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
@@ -10704,10 +10708,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10718,7 +10722,7 @@
         <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>78</v>
@@ -10730,13 +10734,13 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10787,13 +10791,13 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>78</v>
@@ -10805,7 +10809,7 @@
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
@@ -10816,14 +10820,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -10842,16 +10846,16 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -10901,7 +10905,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -10913,13 +10917,13 @@
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
@@ -10930,14 +10934,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -10950,25 +10954,25 @@
         <v>78</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>78</v>
@@ -11017,7 +11021,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11029,13 +11033,13 @@
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>78</v>
@@ -11046,10 +11050,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11057,10 +11061,10 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>78</v>
@@ -11069,16 +11073,16 @@
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11129,19 +11133,19 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
@@ -11158,10 +11162,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11172,7 +11176,7 @@
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>78</v>
@@ -11181,16 +11185,16 @@
         <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11241,19 +11245,19 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
@@ -11270,10 +11274,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11284,7 +11288,7 @@
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>78</v>
@@ -11293,19 +11297,19 @@
         <v>78</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11355,19 +11359,19 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
@@ -11384,10 +11388,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11398,7 +11402,7 @@
         <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>78</v>
@@ -11407,19 +11411,19 @@
         <v>78</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11469,19 +11473,19 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
@@ -11498,10 +11502,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11512,7 +11516,7 @@
         <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>78</v>
@@ -11521,19 +11525,19 @@
         <v>78</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -11583,13 +11587,13 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>78</v>
@@ -11612,41 +11616,41 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11697,7 +11701,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -11709,7 +11713,7 @@
         <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
@@ -11726,10 +11730,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11740,7 +11744,7 @@
         <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>78</v>
@@ -11752,13 +11756,13 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11809,13 +11813,13 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>78</v>
@@ -11827,7 +11831,7 @@
         <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>78</v>
@@ -11838,14 +11842,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -11864,16 +11868,16 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -11923,7 +11927,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -11935,13 +11939,13 @@
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>78</v>
@@ -11952,14 +11956,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -11972,25 +11976,25 @@
         <v>78</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
@@ -12039,7 +12043,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -12051,13 +12055,13 @@
         <v>78</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>78</v>
@@ -12068,10 +12072,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12091,16 +12095,16 @@
         <v>78</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12151,7 +12155,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -12163,7 +12167,7 @@
         <v>78</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>78</v>
@@ -12180,10 +12184,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12194,7 +12198,7 @@
         <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>78</v>
@@ -12203,19 +12207,19 @@
         <v>78</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -12265,19 +12269,19 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>78</v>
@@ -12294,10 +12298,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12308,7 +12312,7 @@
         <v>79</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>78</v>
@@ -12320,16 +12324,16 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -12379,28 +12383,28 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -12408,10 +12412,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12422,7 +12426,7 @@
         <v>79</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>78</v>
@@ -12431,16 +12435,16 @@
         <v>78</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12491,19 +12495,19 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>78</v>
@@ -12520,10 +12524,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12534,7 +12538,7 @@
         <v>79</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>78</v>
@@ -12546,13 +12550,13 @@
         <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12603,13 +12607,13 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>78</v>
@@ -12621,7 +12625,7 @@
         <v>78</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>78</v>
@@ -12632,14 +12636,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -12658,16 +12662,16 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -12717,7 +12721,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -12729,13 +12733,13 @@
         <v>78</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>78</v>
@@ -12746,14 +12750,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -12766,25 +12770,25 @@
         <v>78</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>78</v>
@@ -12833,7 +12837,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -12845,13 +12849,13 @@
         <v>78</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>78</v>
@@ -12862,10 +12866,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12876,7 +12880,7 @@
         <v>79</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>78</v>
@@ -12885,19 +12889,19 @@
         <v>78</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -12923,13 +12927,13 @@
         <v>78</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>78</v>
@@ -12947,19 +12951,19 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>78</v>
@@ -12976,10 +12980,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12990,7 +12994,7 @@
         <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>78</v>
@@ -12999,19 +13003,19 @@
         <v>78</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -13061,19 +13065,19 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>78</v>
@@ -13090,10 +13094,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13104,7 +13108,7 @@
         <v>79</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>78</v>
@@ -13113,16 +13117,16 @@
         <v>78</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13173,19 +13177,19 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>78</v>
@@ -13202,10 +13206,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13216,7 +13220,7 @@
         <v>79</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>78</v>
@@ -13228,13 +13232,13 @@
         <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13285,13 +13289,13 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>78</v>
@@ -13303,7 +13307,7 @@
         <v>78</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>78</v>
@@ -13314,14 +13318,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -13340,16 +13344,16 @@
         <v>78</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -13399,7 +13403,7 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
@@ -13411,13 +13415,13 @@
         <v>78</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>78</v>
@@ -13428,14 +13432,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -13448,25 +13452,25 @@
         <v>78</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>78</v>
@@ -13515,7 +13519,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -13527,13 +13531,13 @@
         <v>78</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>78</v>
@@ -13544,10 +13548,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13555,10 +13559,10 @@
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>78</v>
@@ -13567,16 +13571,16 @@
         <v>78</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -13603,13 +13607,13 @@
         <v>78</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>78</v>
@@ -13627,19 +13631,19 @@
         <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>78</v>
@@ -13656,10 +13660,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13667,10 +13671,10 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>78</v>
@@ -13679,19 +13683,19 @@
         <v>78</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -13741,19 +13745,19 @@
         <v>78</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>78</v>
@@ -13770,10 +13774,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13784,7 +13788,7 @@
         <v>79</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>78</v>
@@ -13793,16 +13797,16 @@
         <v>78</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13853,19 +13857,19 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>78</v>
@@ -13882,10 +13886,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13896,7 +13900,7 @@
         <v>79</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>78</v>
@@ -13905,16 +13909,16 @@
         <v>78</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13965,19 +13969,19 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>78</v>
@@ -13994,10 +13998,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14008,7 +14012,7 @@
         <v>79</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>78</v>
@@ -14017,16 +14021,16 @@
         <v>78</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -14077,19 +14081,19 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>78</v>
@@ -14106,10 +14110,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14120,7 +14124,7 @@
         <v>79</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>78</v>
@@ -14129,16 +14133,16 @@
         <v>78</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -14189,19 +14193,19 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>78</v>
@@ -14218,10 +14222,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14232,7 +14236,7 @@
         <v>79</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>78</v>
@@ -14241,16 +14245,16 @@
         <v>78</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -14301,19 +14305,19 @@
         <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>78</v>
@@ -14330,10 +14334,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14344,7 +14348,7 @@
         <v>79</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>78</v>
@@ -14356,13 +14360,13 @@
         <v>78</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -14413,13 +14417,13 @@
         <v>78</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>78</v>
@@ -14431,7 +14435,7 @@
         <v>78</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>78</v>
@@ -14442,14 +14446,14 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -14468,16 +14472,16 @@
         <v>78</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -14527,7 +14531,7 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -14539,13 +14543,13 @@
         <v>78</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>78</v>
@@ -14556,14 +14560,14 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -14576,25 +14580,25 @@
         <v>78</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>78</v>
@@ -14643,7 +14647,7 @@
         <v>78</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -14655,13 +14659,13 @@
         <v>78</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>78</v>
@@ -14672,10 +14676,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14683,10 +14687,10 @@
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>78</v>
@@ -14695,16 +14699,16 @@
         <v>78</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -14755,19 +14759,19 @@
         <v>78</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>78</v>
@@ -14784,10 +14788,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14798,7 +14802,7 @@
         <v>79</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>78</v>
@@ -14807,16 +14811,16 @@
         <v>78</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14867,19 +14871,19 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>78</v>
@@ -14896,10 +14900,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -14910,7 +14914,7 @@
         <v>79</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>78</v>
@@ -14919,19 +14923,19 @@
         <v>78</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -14981,19 +14985,19 @@
         <v>78</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>78</v>
@@ -15010,10 +15014,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15024,7 +15028,7 @@
         <v>79</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>78</v>
@@ -15033,19 +15037,19 @@
         <v>78</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
@@ -15095,19 +15099,19 @@
         <v>78</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>78</v>
@@ -15124,10 +15128,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15138,7 +15142,7 @@
         <v>79</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>78</v>
@@ -15147,19 +15151,19 @@
         <v>78</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -15209,13 +15213,13 @@
         <v>78</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>78</v>
@@ -15238,10 +15242,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15252,7 +15256,7 @@
         <v>79</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>78</v>
@@ -15261,22 +15265,22 @@
         <v>78</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>78</v>
@@ -15325,19 +15329,19 @@
         <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>78</v>
